--- a/experiment/RUN_ME/stimuli/word_lists/nat_targets.xlsx
+++ b/experiment/RUN_ME/stimuli/word_lists/nat_targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\experiment\RUN_ME\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA7A6B-CA27-4B2D-B1E2-5447B3E84CB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A25C5F-2A1B-4D68-A9A0-1C67969F3795}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{67C7CD9F-D822-4CEB-8161-A2EE2B98574E}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="18900" windowHeight="11055" xr2:uid="{67C7CD9F-D822-4CEB-8161-A2EE2B98574E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="60">
   <si>
     <t>אגרטל</t>
   </si>
@@ -50,9 +50,6 @@
     <t>זריחה</t>
   </si>
   <si>
-    <t>כוורת</t>
-  </si>
-  <si>
     <t>מטאור</t>
   </si>
   <si>
@@ -77,18 +74,12 @@
     <t>עשבים</t>
   </si>
   <si>
-    <t>פיסגה</t>
-  </si>
-  <si>
     <t>פרחים</t>
   </si>
   <si>
     <t>ציפור</t>
   </si>
   <si>
-    <t>צללים</t>
-  </si>
-  <si>
     <t>צמחים</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>גיטרה</t>
   </si>
   <si>
-    <t>גלידה</t>
-  </si>
-  <si>
     <t>מגירה</t>
   </si>
   <si>
@@ -216,6 +204,18 @@
   </si>
   <si>
     <t>ספינה</t>
+  </si>
+  <si>
+    <t>שבתאי</t>
+  </si>
+  <si>
+    <t>ירקות</t>
+  </si>
+  <si>
+    <t>צוללת</t>
+  </si>
+  <si>
+    <t>תמרים</t>
   </si>
 </sst>
 </file>
@@ -585,24 +585,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.75" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.25">
@@ -610,425 +611,428 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>19</v>
       </c>
       <c r="AB3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AD6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1157,64 +1161,67 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>23</v>
       </c>
       <c r="AB9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1266,1262 +1273,1298 @@
       <c r="W10" t="s">
         <v>3</v>
       </c>
+      <c r="AA10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="O12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="Q12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="S12" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="U12" t="s">
+        <v>56</v>
       </c>
       <c r="V12" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="W12" t="s">
+        <v>56</v>
       </c>
       <c r="X12" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
       </c>
       <c r="AA12" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
       </c>
       <c r="AC12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="AD12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z14" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>5</v>
       </c>
       <c r="AC14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>8</v>
       </c>
       <c r="AB17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="M21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
       </c>
       <c r="P21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="S21" t="s">
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="X21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AC22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AD22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" t="s">
-        <v>16</v>
+        <v>57</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>57</v>
+      </c>
+      <c r="N25" t="s">
+        <v>57</v>
       </c>
       <c r="O25" t="s">
-        <v>16</v>
-      </c>
-      <c r="P25" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="S25" t="s">
-        <v>16</v>
-      </c>
-      <c r="T25" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>16</v>
+        <v>57</v>
+      </c>
+      <c r="V25" t="s">
+        <v>57</v>
+      </c>
+      <c r="W25" t="s">
+        <v>57</v>
+      </c>
+      <c r="X25" t="s">
+        <v>57</v>
       </c>
       <c r="Y25" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="Z25" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="AB25" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="AD25" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z31" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>17</v>
       </c>
       <c r="AC31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
